--- a/santa_clara_county/CFR_LTCF.xlsx
+++ b/santa_clara_county/CFR_LTCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\santa_clara_county\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49169CA0-9C3F-47C4-895E-CD4497D4C3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B0F82-4D35-4DC5-BCE6-E1632F2509AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{92AC6A02-C79A-4134-BBFB-5A0657F9F650}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15945" windowHeight="13710" firstSheet="2" activeTab="4" xr2:uid="{92AC6A02-C79A-4134-BBFB-5A0657F9F650}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_cases_at_Long_Term_Car" sheetId="1" r:id="rId1"/>
@@ -4114,9 +4114,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68400C52-DC28-46F4-B88B-407932F6B8B3}">
   <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView topLeftCell="A357" workbookViewId="0"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8274,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D57E4C-5270-45C3-BDEB-66201120F05E}">
   <dimension ref="A1:E894"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B343" sqref="B1:B343"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23490,8 +23495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F6501-8D5C-4F2E-BCB2-F164AD33E858}">
   <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" workbookViewId="0">
-      <selection sqref="A1:C419"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27760,7 +27765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E76C4-BD57-42C1-BF7E-C6D13D26058E}">
   <dimension ref="A1:C417"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300:B330"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -31958,7 +31965,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/santa_clara_county/CFR_LTCF.xlsx
+++ b/santa_clara_county/CFR_LTCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\santa_clara_county\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B0F82-4D35-4DC5-BCE6-E1632F2509AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D871D0-A5F7-4D5C-9C5E-97F1F016E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15945" windowHeight="13710" firstSheet="2" activeTab="4" xr2:uid="{92AC6A02-C79A-4134-BBFB-5A0657F9F650}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{92AC6A02-C79A-4134-BBFB-5A0657F9F650}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_cases_at_Long_Term_Car" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Merged data" sheetId="3" r:id="rId3"/>
     <sheet name="data w11 day shift" sheetId="6" r:id="rId4"/>
     <sheet name="pivot analysis" sheetId="9" r:id="rId5"/>
+    <sheet name="pivot by qtr w plot" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId6"/>
+    <pivotCache cacheId="41" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>New_cases</t>
   </si>
@@ -144,7 +145,38 @@
     <t>Pivot on data with 11 day shifts in deaths to match cases</t>
   </si>
   <si>
-    <t>reveals dramatically higher CFR every month post shot rollout (doubled COVID mortality)</t>
+    <r>
+      <t xml:space="preserve">reveals higher CFR in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>every month post shot rollout</t>
+    </r>
+  </si>
+  <si>
+    <t>Q1 20</t>
+  </si>
+  <si>
+    <t>Q3 20</t>
+  </si>
+  <si>
+    <t>Q2 20</t>
+  </si>
+  <si>
+    <t>Q4 20</t>
+  </si>
+  <si>
+    <t>Q1 21</t>
+  </si>
+  <si>
+    <t>Q2 21</t>
   </si>
 </sst>
 </file>
@@ -154,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +317,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,6 +764,903 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CFR in LTCF in Santa Clara County by Quarter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot by qtr w plot'!$A$16:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Q1 20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot by qtr w plot'!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.871287128712872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9589216944801038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4722222222222232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.683115497465991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.980392156862745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.76923076923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1D7-4AE6-B4FC-DAD2EA46DEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314476528"/>
+        <c:axId val="314478448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314476528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314478448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314478448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314476528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593CA832-728A-2ADD-21C7-090B188BD1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3795,6 +4732,524 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F25E3E1A-821A-4C97-B531-A1F853788CC3}" name="PivotTable12" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="406">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="5"/>
+    <field x="4"/>
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of LTCF COVID cases" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of LTCF COVID deaths" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -31964,8 +33419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9CCDD2-45F2-4E05-B422-8F99E3B69AE7}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32362,4 +33817,250 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763CAA4-0562-46BE-AE3C-A64DDF4AB21A}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5349</v>
+      </c>
+      <c r="C4" s="10">
+        <v>574</v>
+      </c>
+      <c r="E4">
+        <f>C4/B4*100</f>
+        <v>10.730977752851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="0">C5/B5*100</f>
+        <v>12.871287128712872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10">
+        <v>779</v>
+      </c>
+      <c r="C6" s="10">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.9589216944801038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10">
+        <v>720</v>
+      </c>
+      <c r="C7" s="10">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.4722222222222232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3749</v>
+      </c>
+      <c r="C8" s="10">
+        <v>438</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>11.683115497465991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1033</v>
+      </c>
+      <c r="C9" s="10">
+        <v>218</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>21.10358180058083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="10">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>20.980392156862745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6382</v>
+      </c>
+      <c r="C12" s="10">
+        <v>792</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12.409902851770605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>12.871287128712872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>7.9589216944801038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>8.4722222222222232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>11.683115497465991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>20.980392156862745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/santa_clara_county/CFR_LTCF.xlsx
+++ b/santa_clara_county/CFR_LTCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\santa_clara_county\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D871D0-A5F7-4D5C-9C5E-97F1F016E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3F3D1-12DD-41D9-9AFF-6B24A8B722D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{92AC6A02-C79A-4134-BBFB-5A0657F9F650}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>New_cases</t>
   </si>
@@ -178,6 +178,9 @@
   <si>
     <t>Q2 21</t>
   </si>
+  <si>
+    <t>For plot:</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +328,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -686,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,6 +718,8 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -857,7 +869,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot by qtr w plot'!$A$16:$A$21</c:f>
+              <c:f>'pivot by qtr w plot'!$G$19:$G$24</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -883,7 +895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot by qtr w plot'!$B$16:$B$21</c:f>
+              <c:f>'pivot by qtr w plot'!$H$19:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4170,7 +4182,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3912446F-DA69-460E-A455-88B8521F7EDA}" name="PivotTable12" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3912446F-DA69-460E-A455-88B8521F7EDA}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -4733,8 +4745,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F25E3E1A-821A-4C97-B531-A1F853788CC3}" name="PivotTable12" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F25E3E1A-821A-4C97-B531-A1F853788CC3}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="406">
@@ -5170,10 +5182,10 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item sd="0" x="5"/>
         <item t="default"/>
       </items>
@@ -5194,21 +5206,54 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="24">
     <i>
       <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="3"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
     </i>
     <i>
       <x v="2"/>
@@ -5216,8 +5261,20 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -33458,10 +33515,10 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>5349</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>574</v>
       </c>
       <c r="E4">
@@ -33473,10 +33530,10 @@
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>101</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>13</v>
       </c>
       <c r="E5">
@@ -33488,10 +33545,10 @@
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -33503,10 +33560,10 @@
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>13</v>
       </c>
       <c r="E7">
@@ -33518,10 +33575,10 @@
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>779</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>62</v>
       </c>
       <c r="E8">
@@ -33533,10 +33590,10 @@
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>439</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>41</v>
       </c>
       <c r="E9">
@@ -33548,10 +33605,10 @@
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>113</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="E10">
@@ -33563,10 +33620,10 @@
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>227</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>12</v>
       </c>
       <c r="E11">
@@ -33578,10 +33635,10 @@
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>720</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>61</v>
       </c>
       <c r="E12">
@@ -33593,10 +33650,10 @@
       <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>254</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>11</v>
       </c>
       <c r="E13">
@@ -33608,10 +33665,10 @@
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>265</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>31</v>
       </c>
       <c r="E14">
@@ -33623,10 +33680,10 @@
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>201</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>19</v>
       </c>
       <c r="E15">
@@ -33638,10 +33695,10 @@
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>3749</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>438</v>
       </c>
       <c r="E16">
@@ -33653,10 +33710,10 @@
       <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>244</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>33</v>
       </c>
       <c r="E17">
@@ -33668,10 +33725,10 @@
       <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>929</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>75</v>
       </c>
       <c r="E18">
@@ -33683,10 +33740,10 @@
       <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>2576</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>330</v>
       </c>
       <c r="E19">
@@ -33698,10 +33755,10 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>1033</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>218</v>
       </c>
       <c r="E20">
@@ -33713,10 +33770,10 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>1020</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>214</v>
       </c>
       <c r="E21">
@@ -33728,10 +33785,10 @@
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>891</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>168</v>
       </c>
       <c r="E22">
@@ -33743,10 +33800,10 @@
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>113</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>33</v>
       </c>
       <c r="E23">
@@ -33758,10 +33815,10 @@
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>13</v>
       </c>
       <c r="E24">
@@ -33773,10 +33830,10 @@
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>13</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>4</v>
       </c>
       <c r="E25">
@@ -33788,10 +33845,10 @@
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>4</v>
       </c>
       <c r="E26">
@@ -33803,10 +33860,10 @@
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27">
         <v>6382</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27">
         <v>792</v>
       </c>
       <c r="E27">
@@ -33821,10 +33878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763CAA4-0562-46BE-AE3C-A64DDF4AB21A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33883,180 +33940,378 @@
       <c r="C5" s="10">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
       <c r="E5">
-        <f t="shared" ref="E5:E12" si="0">C5/B5*100</f>
+        <f t="shared" ref="E5:E27" si="0">C5/B5*100</f>
         <v>12.871287128712872</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
+      <c r="A6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="10">
-        <v>779</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>7.9589216944801038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
+      <c r="A7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="10">
-        <v>720</v>
+        <v>100</v>
       </c>
       <c r="C7" s="10">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>8.4722222222222232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10">
-        <v>3749</v>
+        <v>779</v>
       </c>
       <c r="C8" s="10">
-        <v>438</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>11.683115497465991</v>
+        <v>7.9589216944801038</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="10">
-        <v>1033</v>
+        <v>439</v>
       </c>
       <c r="C9" s="10">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>21.10358180058083</v>
+        <v>9.3394077448747161</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
+      <c r="A10" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="10">
-        <v>1020</v>
+        <v>113</v>
       </c>
       <c r="C10" s="10">
-        <v>214</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>20.980392156862745</v>
+        <v>7.9646017699115044</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
+      <c r="A11" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="10">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C11" s="10">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>30.76923076923077</v>
+        <v>5.286343612334802</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
+      <c r="A12" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="10">
-        <v>6382</v>
+        <v>720</v>
       </c>
       <c r="C12" s="10">
-        <v>792</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
+        <v>8.4722222222222232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10">
+        <v>254</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.3307086614173231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <v>265</v>
+      </c>
+      <c r="C14" s="10">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>11.69811320754717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10">
+        <v>201</v>
+      </c>
+      <c r="C15" s="10">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9.4527363184079594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3749</v>
+      </c>
+      <c r="C16" s="10">
+        <v>438</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>11.683115497465991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10">
+        <v>244</v>
+      </c>
+      <c r="C17" s="10">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>13.524590163934427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10">
+        <v>929</v>
+      </c>
+      <c r="C18" s="10">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.0731969860064581</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2576</v>
+      </c>
+      <c r="C19" s="10">
+        <v>330</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>12.81055900621118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>12.871287128712872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1033</v>
+      </c>
+      <c r="C20" s="10">
+        <v>218</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>21.10358180058083</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>7.9589216944801038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="10">
+        <v>214</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>20.980392156862745</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>8.4722222222222232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10">
+        <v>891</v>
+      </c>
+      <c r="C22" s="10">
+        <v>168</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>18.855218855218855</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>11.683115497465991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>113</v>
+      </c>
+      <c r="C23" s="10">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>29.20353982300885</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>20.980392156862745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="10">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="10">
+        <v>6382</v>
+      </c>
+      <c r="C27" s="10">
+        <v>792</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
         <v>12.409902851770605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>12.871287128712872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>7.9589216944801038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>8.4722222222222232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>11.683115497465991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>20.980392156862745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21">
-        <v>30.76923076923077</v>
       </c>
     </row>
   </sheetData>
